--- a/backend/summary.xlsx
+++ b/backend/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>comment_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Amazon</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>comment_3</t>
         </is>
       </c>
     </row>
@@ -465,11 +475,17 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4424</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,11 +497,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>332</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>242</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -497,11 +515,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3424</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -513,10 +533,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>233</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>32234</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -529,11 +555,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -545,283 +573,17 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PS4 Gear Club Unlimited 2 Ultimate Edition (CUSA 30856) рус.суб</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PS5 Little Big Adventure Twinsens Quest Limited Edition</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Switch Little Big Adventure Twinsens Quest Limited Edition</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>53</v>
-      </c>
-      <c r="D10" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PS5 Flint: Treasure of oblivion</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>353</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PS5 Plaanet Zoo</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PS5 Train Sim World 5</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PS5 EA WRC</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PS5 WRC Generations</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PS5 MX vs ATV Legends Season 2 </t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>243</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PS5 Way of Hunter Wild Expeditions</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PS4 Sniper Elite Resistance</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PS5 Sniper Elite Resistance</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43</v>
-      </c>
-      <c r="D19" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Xbox One/ Series X Sniper Elite Resistance</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PS5 Sniper Elite Resistance DELUX Edition</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Switch Donkey Kong Country Return HD</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PS5 Dynasty Warriors Origins</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>43</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Switch Marvel vs Capcom Fighting collection arcade classic (code in box)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>35</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>qwerty!@#$%^&amp;*()_</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>234</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
